--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3502.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3502.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161377841634223</v>
+        <v>3.475135326385498</v>
       </c>
       <c r="B1">
-        <v>3.465861614184013</v>
+        <v>2.97974681854248</v>
       </c>
       <c r="C1">
-        <v>6.376259745274465</v>
+        <v>2.631460666656494</v>
       </c>
       <c r="D1">
-        <v>2.256531619587846</v>
+        <v>2.395705223083496</v>
       </c>
       <c r="E1">
-        <v>1.411251928721774</v>
+        <v>1.720226645469666</v>
       </c>
     </row>
   </sheetData>
